--- a/net_demo/net_protocol.xlsx
+++ b/net_demo/net_protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,34 @@
   </si>
   <si>
     <t>00000000,00000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C_PROTOCOL_ECHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端 传来的string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将客户端传来的string直接返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2C_PROTOCOL_SERVER_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器逻辑错误（一般是服务器是进行协议解码、具体业务逻辑处理、协议编码时出异常，此时网络连接正常，用此条消息通知客户端服务器出现了异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,6 +501,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,72 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +878,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -874,13 +902,13 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1"/>
     <row r="3" spans="1:8" ht="19.5" thickTop="1">
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -888,7 +916,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75">
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -896,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75">
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -904,7 +932,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -912,66 +940,66 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="112.5">
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" thickBot="1">
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickTop="1">
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="E13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="13">
         <v>1</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="E15" s="9"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -979,11 +1007,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1">
-      <c r="E16" s="10"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="5"/>
@@ -995,16 +1023,16 @@
       </c>
     </row>
     <row r="19" spans="5:8" ht="14.25" thickTop="1">
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1018,7 +1046,7 @@
       <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1035,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1051,82 +1079,72 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="1:5" ht="15" thickTop="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickTop="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="21"/>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickTop="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,14 +1154,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1"/>
+    <row r="2" spans="1:5" ht="15" thickTop="1">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickTop="1"/>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1"/>
+    <row r="10" spans="1:5" ht="15" thickTop="1">
+      <c r="A10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/net_demo/net_protocol.xlsx
+++ b/net_demo/net_protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将客户端传来的string直接返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S2C_PROTOCOL_SERVER_ERROR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,11 +176,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器逻辑错误（一般是服务器是进行协议解码、具体业务逻辑处理、协议编码时出异常，此时网络连接正常，用此条消息通知客户端服务器出现了异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器逻辑错误（一般是服务器进行协议解码、具体业务逻辑处理、协议编码时出异常，此时网络连接正常，用此条消息通知客户端服务器出现了异常）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1185,13 +1181,13 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>40</v>
@@ -1230,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1291,23 +1287,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/net_demo/net_protocol.xlsx
+++ b/net_demo/net_protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
   </si>
   <si>
     <t>ServerError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1062,7 +1058,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1150,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1190,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1220,77 +1216,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="9" t="s">
+    <row r="8" spans="1:5" ht="14.25" thickBot="1"/>
+    <row r="9" spans="1:5" ht="15" thickTop="1">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickTop="1"/>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1"/>
-    <row r="10" spans="1:5" ht="15" thickTop="1">
-      <c r="A10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
